--- a/data/yahoofin/TLT_yahoofin_historical_data.xlsx
+++ b/data/yahoofin/TLT_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G202"/>
+  <dimension ref="A1:G204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
         <v>101.459999</v>
       </c>
       <c r="F2" t="n">
-        <v>99.019188</v>
+        <v>99.01917299999999</v>
       </c>
       <c r="G2" t="n">
         <v>25313200</v>
@@ -539,7 +539,7 @@
         <v>103.279999</v>
       </c>
       <c r="F4" t="n">
-        <v>100.795418</v>
+        <v>100.795403</v>
       </c>
       <c r="G4" t="n">
         <v>14771100</v>
@@ -564,7 +564,7 @@
         <v>105.18</v>
       </c>
       <c r="F5" t="n">
-        <v>102.649689</v>
+        <v>102.649696</v>
       </c>
       <c r="G5" t="n">
         <v>27473700</v>
@@ -589,7 +589,7 @@
         <v>105.739998</v>
       </c>
       <c r="F6" t="n">
-        <v>103.196205</v>
+        <v>103.19622</v>
       </c>
       <c r="G6" t="n">
         <v>21472200</v>
@@ -614,7 +614,7 @@
         <v>103.989998</v>
       </c>
       <c r="F7" t="n">
-        <v>101.488312</v>
+        <v>101.488319</v>
       </c>
       <c r="G7" t="n">
         <v>20545200</v>
@@ -639,7 +639,7 @@
         <v>105.68</v>
       </c>
       <c r="F8" t="n">
-        <v>103.137665</v>
+        <v>103.137657</v>
       </c>
       <c r="G8" t="n">
         <v>18794000</v>
@@ -689,7 +689,7 @@
         <v>106.75</v>
       </c>
       <c r="F10" t="n">
-        <v>104.181938</v>
+        <v>104.181923</v>
       </c>
       <c r="G10" t="n">
         <v>17750800</v>
@@ -714,7 +714,7 @@
         <v>106.059998</v>
       </c>
       <c r="F11" t="n">
-        <v>103.50853</v>
+        <v>103.508522</v>
       </c>
       <c r="G11" t="n">
         <v>13911700</v>
@@ -814,7 +814,7 @@
         <v>105.699997</v>
       </c>
       <c r="F15" t="n">
-        <v>103.157181</v>
+        <v>103.157188</v>
       </c>
       <c r="G15" t="n">
         <v>12961500</v>
@@ -839,7 +839,7 @@
         <v>107.220001</v>
       </c>
       <c r="F16" t="n">
-        <v>104.640625</v>
+        <v>104.640617</v>
       </c>
       <c r="G16" t="n">
         <v>16417200</v>
@@ -864,7 +864,7 @@
         <v>107.480003</v>
       </c>
       <c r="F17" t="n">
-        <v>104.894363</v>
+        <v>104.894371</v>
       </c>
       <c r="G17" t="n">
         <v>11906500</v>
@@ -889,7 +889,7 @@
         <v>106.980003</v>
       </c>
       <c r="F18" t="n">
-        <v>104.40641</v>
+        <v>104.406395</v>
       </c>
       <c r="G18" t="n">
         <v>15549400</v>
@@ -914,7 +914,7 @@
         <v>106.709999</v>
       </c>
       <c r="F19" t="n">
-        <v>104.142899</v>
+        <v>104.142883</v>
       </c>
       <c r="G19" t="n">
         <v>11845500</v>
@@ -939,7 +939,7 @@
         <v>106.32</v>
       </c>
       <c r="F20" t="n">
-        <v>103.76226</v>
+        <v>103.762283</v>
       </c>
       <c r="G20" t="n">
         <v>11459700</v>
@@ -964,7 +964,7 @@
         <v>107.169998</v>
       </c>
       <c r="F21" t="n">
-        <v>104.591827</v>
+        <v>104.59182</v>
       </c>
       <c r="G21" t="n">
         <v>13705300</v>
@@ -1014,7 +1014,7 @@
         <v>108.32</v>
       </c>
       <c r="F23" t="n">
-        <v>105.986122</v>
+        <v>105.986115</v>
       </c>
       <c r="G23" t="n">
         <v>19548400</v>
@@ -1064,7 +1064,7 @@
         <v>105.910004</v>
       </c>
       <c r="F25" t="n">
-        <v>103.628052</v>
+        <v>103.628044</v>
       </c>
       <c r="G25" t="n">
         <v>15182400</v>
@@ -1089,7 +1089,7 @@
         <v>105.059998</v>
       </c>
       <c r="F26" t="n">
-        <v>102.796356</v>
+        <v>102.796364</v>
       </c>
       <c r="G26" t="n">
         <v>18290300</v>
@@ -1139,7 +1139,7 @@
         <v>104.559998</v>
       </c>
       <c r="F28" t="n">
-        <v>102.307129</v>
+        <v>102.307144</v>
       </c>
       <c r="G28" t="n">
         <v>20469900</v>
@@ -1164,7 +1164,7 @@
         <v>103.389999</v>
       </c>
       <c r="F29" t="n">
-        <v>101.162338</v>
+        <v>101.162346</v>
       </c>
       <c r="G29" t="n">
         <v>16598300</v>
@@ -1214,7 +1214,7 @@
         <v>104.019997</v>
       </c>
       <c r="F31" t="n">
-        <v>101.778778</v>
+        <v>101.778763</v>
       </c>
       <c r="G31" t="n">
         <v>15440300</v>
@@ -1239,7 +1239,7 @@
         <v>103.050003</v>
       </c>
       <c r="F32" t="n">
-        <v>100.829666</v>
+        <v>100.829681</v>
       </c>
       <c r="G32" t="n">
         <v>15246900</v>
@@ -1264,7 +1264,7 @@
         <v>101.589996</v>
       </c>
       <c r="F33" t="n">
-        <v>99.40113100000001</v>
+        <v>99.401123</v>
       </c>
       <c r="G33" t="n">
         <v>19267300</v>
@@ -1289,7 +1289,7 @@
         <v>102.379997</v>
       </c>
       <c r="F34" t="n">
-        <v>100.174095</v>
+        <v>100.174103</v>
       </c>
       <c r="G34" t="n">
         <v>19560900</v>
@@ -1314,7 +1314,7 @@
         <v>100.389999</v>
       </c>
       <c r="F35" t="n">
-        <v>98.22698200000001</v>
+        <v>98.22699</v>
       </c>
       <c r="G35" t="n">
         <v>22728000</v>
@@ -1389,7 +1389,7 @@
         <v>100.970001</v>
       </c>
       <c r="F38" t="n">
-        <v>98.794479</v>
+        <v>98.794487</v>
       </c>
       <c r="G38" t="n">
         <v>21403600</v>
@@ -1414,7 +1414,7 @@
         <v>101.25</v>
       </c>
       <c r="F39" t="n">
-        <v>99.068451</v>
+        <v>99.068443</v>
       </c>
       <c r="G39" t="n">
         <v>14209200</v>
@@ -1439,7 +1439,7 @@
         <v>101.709999</v>
       </c>
       <c r="F40" t="n">
-        <v>99.518539</v>
+        <v>99.518547</v>
       </c>
       <c r="G40" t="n">
         <v>14955700</v>
@@ -1514,7 +1514,7 @@
         <v>101.889999</v>
       </c>
       <c r="F43" t="n">
-        <v>99.94032300000001</v>
+        <v>99.940315</v>
       </c>
       <c r="G43" t="n">
         <v>30877300</v>
@@ -1564,7 +1564,7 @@
         <v>101.720001</v>
       </c>
       <c r="F45" t="n">
-        <v>99.77357499999999</v>
+        <v>99.773567</v>
       </c>
       <c r="G45" t="n">
         <v>23096500</v>
@@ -1589,7 +1589,7 @@
         <v>101.82</v>
       </c>
       <c r="F46" t="n">
-        <v>99.871658</v>
+        <v>99.871651</v>
       </c>
       <c r="G46" t="n">
         <v>20252400</v>
@@ -1614,7 +1614,7 @@
         <v>102.07</v>
       </c>
       <c r="F47" t="n">
-        <v>100.116859</v>
+        <v>100.116867</v>
       </c>
       <c r="G47" t="n">
         <v>21550400</v>
@@ -1639,7 +1639,7 @@
         <v>105.589996</v>
       </c>
       <c r="F48" t="n">
-        <v>103.569504</v>
+        <v>103.569511</v>
       </c>
       <c r="G48" t="n">
         <v>43921500</v>
@@ -1689,7 +1689,7 @@
         <v>104.089996</v>
       </c>
       <c r="F50" t="n">
-        <v>102.098206</v>
+        <v>102.098213</v>
       </c>
       <c r="G50" t="n">
         <v>38417800</v>
@@ -1714,7 +1714,7 @@
         <v>106.099998</v>
       </c>
       <c r="F51" t="n">
-        <v>104.069756</v>
+        <v>104.069763</v>
       </c>
       <c r="G51" t="n">
         <v>45164100</v>
@@ -1739,7 +1739,7 @@
         <v>105.269997</v>
       </c>
       <c r="F52" t="n">
-        <v>103.255623</v>
+        <v>103.255638</v>
       </c>
       <c r="G52" t="n">
         <v>43089300</v>
@@ -1814,7 +1814,7 @@
         <v>105</v>
       </c>
       <c r="F55" t="n">
-        <v>102.990799</v>
+        <v>102.990791</v>
       </c>
       <c r="G55" t="n">
         <v>18934900</v>
@@ -1839,7 +1839,7 @@
         <v>106.400002</v>
       </c>
       <c r="F56" t="n">
-        <v>104.364021</v>
+        <v>104.364014</v>
       </c>
       <c r="G56" t="n">
         <v>26388500</v>
@@ -1864,7 +1864,7 @@
         <v>106.400002</v>
       </c>
       <c r="F57" t="n">
-        <v>104.364021</v>
+        <v>104.364014</v>
       </c>
       <c r="G57" t="n">
         <v>25475100</v>
@@ -1914,7 +1914,7 @@
         <v>104.339996</v>
       </c>
       <c r="F59" t="n">
-        <v>102.34343</v>
+        <v>102.343422</v>
       </c>
       <c r="G59" t="n">
         <v>22224500</v>
@@ -1939,7 +1939,7 @@
         <v>104.529999</v>
       </c>
       <c r="F60" t="n">
-        <v>102.529785</v>
+        <v>102.529793</v>
       </c>
       <c r="G60" t="n">
         <v>17794300</v>
@@ -1989,7 +1989,7 @@
         <v>104.800003</v>
       </c>
       <c r="F62" t="n">
-        <v>102.794632</v>
+        <v>102.794617</v>
       </c>
       <c r="G62" t="n">
         <v>14315800</v>
@@ -2014,7 +2014,7 @@
         <v>106.370003</v>
       </c>
       <c r="F63" t="n">
-        <v>104.334587</v>
+        <v>104.334595</v>
       </c>
       <c r="G63" t="n">
         <v>25396700</v>
@@ -2039,7 +2039,7 @@
         <v>106.599998</v>
       </c>
       <c r="F64" t="n">
-        <v>104.825272</v>
+        <v>104.825287</v>
       </c>
       <c r="G64" t="n">
         <v>18234800</v>
@@ -2064,7 +2064,7 @@
         <v>107.129997</v>
       </c>
       <c r="F65" t="n">
-        <v>105.346458</v>
+        <v>105.346466</v>
       </c>
       <c r="G65" t="n">
         <v>18052400</v>
@@ -2089,7 +2089,7 @@
         <v>108.25</v>
       </c>
       <c r="F66" t="n">
-        <v>106.447807</v>
+        <v>106.447815</v>
       </c>
       <c r="G66" t="n">
         <v>23047700</v>
@@ -2114,7 +2114,7 @@
         <v>108.529999</v>
       </c>
       <c r="F67" t="n">
-        <v>106.723152</v>
+        <v>106.723145</v>
       </c>
       <c r="G67" t="n">
         <v>16447300</v>
@@ -2139,7 +2139,7 @@
         <v>106.779999</v>
       </c>
       <c r="F68" t="n">
-        <v>105.002289</v>
+        <v>105.002281</v>
       </c>
       <c r="G68" t="n">
         <v>19134400</v>
@@ -2164,7 +2164,7 @@
         <v>107</v>
       </c>
       <c r="F69" t="n">
-        <v>105.218613</v>
+        <v>105.21862</v>
       </c>
       <c r="G69" t="n">
         <v>13971200</v>
@@ -2214,7 +2214,7 @@
         <v>106.050003</v>
       </c>
       <c r="F71" t="n">
-        <v>104.284439</v>
+        <v>104.284447</v>
       </c>
       <c r="G71" t="n">
         <v>22079400</v>
@@ -2364,7 +2364,7 @@
         <v>104.400002</v>
       </c>
       <c r="F77" t="n">
-        <v>102.661911</v>
+        <v>102.661903</v>
       </c>
       <c r="G77" t="n">
         <v>15244700</v>
@@ -2414,7 +2414,7 @@
         <v>106.959999</v>
       </c>
       <c r="F79" t="n">
-        <v>105.179283</v>
+        <v>105.179276</v>
       </c>
       <c r="G79" t="n">
         <v>21899900</v>
@@ -2439,7 +2439,7 @@
         <v>105.82</v>
       </c>
       <c r="F80" t="n">
-        <v>104.058273</v>
+        <v>104.058266</v>
       </c>
       <c r="G80" t="n">
         <v>19610400</v>
@@ -2464,7 +2464,7 @@
         <v>104.769997</v>
       </c>
       <c r="F81" t="n">
-        <v>103.025742</v>
+        <v>103.025749</v>
       </c>
       <c r="G81" t="n">
         <v>20247600</v>
@@ -2489,7 +2489,7 @@
         <v>106.459999</v>
       </c>
       <c r="F82" t="n">
-        <v>104.687614</v>
+        <v>104.687607</v>
       </c>
       <c r="G82" t="n">
         <v>26949000</v>
@@ -2514,7 +2514,7 @@
         <v>103.129997</v>
       </c>
       <c r="F83" t="n">
-        <v>101.668983</v>
+        <v>101.668991</v>
       </c>
       <c r="G83" t="n">
         <v>32487300</v>
@@ -2539,7 +2539,7 @@
         <v>105.699997</v>
       </c>
       <c r="F84" t="n">
-        <v>104.202583</v>
+        <v>104.202576</v>
       </c>
       <c r="G84" t="n">
         <v>30057800</v>
@@ -2564,7 +2564,7 @@
         <v>106.290001</v>
       </c>
       <c r="F85" t="n">
-        <v>104.784225</v>
+        <v>104.784233</v>
       </c>
       <c r="G85" t="n">
         <v>23656200</v>
@@ -2589,7 +2589,7 @@
         <v>105.239998</v>
       </c>
       <c r="F86" t="n">
-        <v>103.749107</v>
+        <v>103.7491</v>
       </c>
       <c r="G86" t="n">
         <v>25110500</v>
@@ -2664,7 +2664,7 @@
         <v>103.050003</v>
       </c>
       <c r="F89" t="n">
-        <v>101.590126</v>
+        <v>101.590134</v>
       </c>
       <c r="G89" t="n">
         <v>19182500</v>
@@ -2689,7 +2689,7 @@
         <v>104.050003</v>
       </c>
       <c r="F90" t="n">
-        <v>102.575966</v>
+        <v>102.575958</v>
       </c>
       <c r="G90" t="n">
         <v>22886800</v>
@@ -2714,7 +2714,7 @@
         <v>105.150002</v>
       </c>
       <c r="F91" t="n">
-        <v>103.66037</v>
+        <v>103.660378</v>
       </c>
       <c r="G91" t="n">
         <v>19147200</v>
@@ -2739,7 +2739,7 @@
         <v>104.269997</v>
       </c>
       <c r="F92" t="n">
-        <v>102.792847</v>
+        <v>102.792839</v>
       </c>
       <c r="G92" t="n">
         <v>14195900</v>
@@ -2764,7 +2764,7 @@
         <v>103.190002</v>
       </c>
       <c r="F93" t="n">
-        <v>101.728149</v>
+        <v>101.728142</v>
       </c>
       <c r="G93" t="n">
         <v>20085300</v>
@@ -2789,7 +2789,7 @@
         <v>102.879997</v>
       </c>
       <c r="F94" t="n">
-        <v>101.422539</v>
+        <v>101.422531</v>
       </c>
       <c r="G94" t="n">
         <v>29251700</v>
@@ -2839,7 +2839,7 @@
         <v>101.82</v>
       </c>
       <c r="F96" t="n">
-        <v>100.377548</v>
+        <v>100.377556</v>
       </c>
       <c r="G96" t="n">
         <v>25536600</v>
@@ -2864,7 +2864,7 @@
         <v>101.099998</v>
       </c>
       <c r="F97" t="n">
-        <v>99.66774700000001</v>
+        <v>99.66773999999999</v>
       </c>
       <c r="G97" t="n">
         <v>29032300</v>
@@ -2889,7 +2889,7 @@
         <v>100.739998</v>
       </c>
       <c r="F98" t="n">
-        <v>99.312843</v>
+        <v>99.312859</v>
       </c>
       <c r="G98" t="n">
         <v>20131100</v>
@@ -2914,7 +2914,7 @@
         <v>101.029999</v>
       </c>
       <c r="F99" t="n">
-        <v>99.59874000000001</v>
+        <v>99.598732</v>
       </c>
       <c r="G99" t="n">
         <v>21749500</v>
@@ -2939,7 +2939,7 @@
         <v>100.529999</v>
       </c>
       <c r="F100" t="n">
-        <v>99.10582700000001</v>
+        <v>99.10581999999999</v>
       </c>
       <c r="G100" t="n">
         <v>18473400</v>
@@ -2964,7 +2964,7 @@
         <v>100.279999</v>
       </c>
       <c r="F101" t="n">
-        <v>98.85936</v>
+        <v>98.85936700000001</v>
       </c>
       <c r="G101" t="n">
         <v>22492800</v>
@@ -3039,7 +3039,7 @@
         <v>102.989998</v>
       </c>
       <c r="F104" t="n">
-        <v>101.530975</v>
+        <v>101.530968</v>
       </c>
       <c r="G104" t="n">
         <v>23787000</v>
@@ -3139,7 +3139,7 @@
         <v>102.400002</v>
       </c>
       <c r="F108" t="n">
-        <v>101.217636</v>
+        <v>101.217644</v>
       </c>
       <c r="G108" t="n">
         <v>14332100</v>
@@ -3164,7 +3164,7 @@
         <v>100.879997</v>
       </c>
       <c r="F109" t="n">
-        <v>99.715187</v>
+        <v>99.71517900000001</v>
       </c>
       <c r="G109" t="n">
         <v>25251100</v>
@@ -3189,7 +3189,7 @@
         <v>102.059998</v>
       </c>
       <c r="F110" t="n">
-        <v>100.881561</v>
+        <v>100.881554</v>
       </c>
       <c r="G110" t="n">
         <v>23845100</v>
@@ -3214,7 +3214,7 @@
         <v>101.919998</v>
       </c>
       <c r="F111" t="n">
-        <v>100.743179</v>
+        <v>100.743172</v>
       </c>
       <c r="G111" t="n">
         <v>22147400</v>
@@ -3239,7 +3239,7 @@
         <v>102.220001</v>
       </c>
       <c r="F112" t="n">
-        <v>101.039711</v>
+        <v>101.039719</v>
       </c>
       <c r="G112" t="n">
         <v>19010300</v>
@@ -3264,7 +3264,7 @@
         <v>101.209999</v>
       </c>
       <c r="F113" t="n">
-        <v>100.041382</v>
+        <v>100.041374</v>
       </c>
       <c r="G113" t="n">
         <v>25910800</v>
@@ -3339,7 +3339,7 @@
         <v>102.599998</v>
       </c>
       <c r="F116" t="n">
-        <v>101.415329</v>
+        <v>101.415321</v>
       </c>
       <c r="G116" t="n">
         <v>16758200</v>
@@ -3364,7 +3364,7 @@
         <v>103.309998</v>
       </c>
       <c r="F117" t="n">
-        <v>102.117126</v>
+        <v>102.117119</v>
       </c>
       <c r="G117" t="n">
         <v>17162900</v>
@@ -3439,7 +3439,7 @@
         <v>103.330002</v>
       </c>
       <c r="F120" t="n">
-        <v>102.136902</v>
+        <v>102.136894</v>
       </c>
       <c r="G120" t="n">
         <v>22896800</v>
@@ -3464,7 +3464,7 @@
         <v>103.440002</v>
       </c>
       <c r="F121" t="n">
-        <v>102.245621</v>
+        <v>102.245636</v>
       </c>
       <c r="G121" t="n">
         <v>12894900</v>
@@ -3489,7 +3489,7 @@
         <v>103.169998</v>
       </c>
       <c r="F122" t="n">
-        <v>101.978737</v>
+        <v>101.978745</v>
       </c>
       <c r="G122" t="n">
         <v>18105700</v>
@@ -3514,7 +3514,7 @@
         <v>103.610001</v>
       </c>
       <c r="F123" t="n">
-        <v>102.413666</v>
+        <v>102.413673</v>
       </c>
       <c r="G123" t="n">
         <v>23826800</v>
@@ -3539,7 +3539,7 @@
         <v>101.739998</v>
       </c>
       <c r="F124" t="n">
-        <v>100.565262</v>
+        <v>100.565254</v>
       </c>
       <c r="G124" t="n">
         <v>41091600</v>
@@ -3664,7 +3664,7 @@
         <v>99.08000199999999</v>
       </c>
       <c r="F129" t="n">
-        <v>98.201172</v>
+        <v>98.20117999999999</v>
       </c>
       <c r="G129" t="n">
         <v>28979600</v>
@@ -3689,7 +3689,7 @@
         <v>99.209999</v>
       </c>
       <c r="F130" t="n">
-        <v>98.33002500000001</v>
+        <v>98.330017</v>
       </c>
       <c r="G130" t="n">
         <v>24665200</v>
@@ -3739,7 +3739,7 @@
         <v>100.830002</v>
       </c>
       <c r="F132" t="n">
-        <v>99.93564600000001</v>
+        <v>99.935654</v>
       </c>
       <c r="G132" t="n">
         <v>31928000</v>
@@ -3889,7 +3889,7 @@
         <v>101.699997</v>
       </c>
       <c r="F138" t="n">
-        <v>100.797928</v>
+        <v>100.797935</v>
       </c>
       <c r="G138" t="n">
         <v>56951200</v>
@@ -3914,7 +3914,7 @@
         <v>101.730003</v>
       </c>
       <c r="F139" t="n">
-        <v>100.827675</v>
+        <v>100.827667</v>
       </c>
       <c r="G139" t="n">
         <v>20655700</v>
@@ -3964,7 +3964,7 @@
         <v>101.169998</v>
       </c>
       <c r="F141" t="n">
-        <v>100.272636</v>
+        <v>100.272629</v>
       </c>
       <c r="G141" t="n">
         <v>17160600</v>
@@ -4064,7 +4064,7 @@
         <v>100.050003</v>
       </c>
       <c r="F145" t="n">
-        <v>99.162567</v>
+        <v>99.162575</v>
       </c>
       <c r="G145" t="n">
         <v>28663800</v>
@@ -4214,7 +4214,7 @@
         <v>96.69000200000001</v>
       </c>
       <c r="F151" t="n">
-        <v>96.096512</v>
+        <v>96.096504</v>
       </c>
       <c r="G151" t="n">
         <v>24010500</v>
@@ -4239,7 +4239,7 @@
         <v>97.19000200000001</v>
       </c>
       <c r="F152" t="n">
-        <v>96.593445</v>
+        <v>96.59343699999999</v>
       </c>
       <c r="G152" t="n">
         <v>20151100</v>
@@ -4264,7 +4264,7 @@
         <v>95.589996</v>
       </c>
       <c r="F153" t="n">
-        <v>95.003258</v>
+        <v>95.00324999999999</v>
       </c>
       <c r="G153" t="n">
         <v>37253200</v>
@@ -4439,7 +4439,7 @@
         <v>92.519997</v>
       </c>
       <c r="F160" t="n">
-        <v>91.952095</v>
+        <v>91.95210299999999</v>
       </c>
       <c r="G160" t="n">
         <v>29254100</v>
@@ -4489,7 +4489,7 @@
         <v>95.540001</v>
       </c>
       <c r="F162" t="n">
-        <v>94.95356</v>
+        <v>94.953568</v>
       </c>
       <c r="G162" t="n">
         <v>38294700</v>
@@ -4514,7 +4514,7 @@
         <v>94.910004</v>
       </c>
       <c r="F163" t="n">
-        <v>94.327431</v>
+        <v>94.327438</v>
       </c>
       <c r="G163" t="n">
         <v>22300800</v>
@@ -4539,7 +4539,7 @@
         <v>95.220001</v>
       </c>
       <c r="F164" t="n">
-        <v>94.63552900000001</v>
+        <v>94.635536</v>
       </c>
       <c r="G164" t="n">
         <v>23865200</v>
@@ -4564,7 +4564,7 @@
         <v>95.31999999999999</v>
       </c>
       <c r="F165" t="n">
-        <v>94.734917</v>
+        <v>94.734909</v>
       </c>
       <c r="G165" t="n">
         <v>16037300</v>
@@ -5467,7 +5467,7 @@
         <v>84.5</v>
       </c>
       <c r="G201" t="n">
-        <v>63493400</v>
+        <v>63724600</v>
       </c>
     </row>
     <row r="202">
@@ -5483,16 +5483,66 @@
         <v>84.56999999999999</v>
       </c>
       <c r="D202" t="n">
-        <v>82.804497</v>
+        <v>82.739998</v>
       </c>
       <c r="E202" t="n">
-        <v>82.919403</v>
+        <v>82.769997</v>
       </c>
       <c r="F202" t="n">
-        <v>82.919403</v>
+        <v>82.769997</v>
       </c>
       <c r="G202" t="n">
-        <v>68282213</v>
+        <v>87696900</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>82.989998</v>
+      </c>
+      <c r="C203" t="n">
+        <v>83.540001</v>
+      </c>
+      <c r="D203" t="n">
+        <v>82.769997</v>
+      </c>
+      <c r="E203" t="n">
+        <v>83.239998</v>
+      </c>
+      <c r="F203" t="n">
+        <v>83.239998</v>
+      </c>
+      <c r="G203" t="n">
+        <v>52162600</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2023-10-23</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>82.989998</v>
+      </c>
+      <c r="C204" t="n">
+        <v>82.894997</v>
+      </c>
+      <c r="D204" t="n">
+        <v>82.58000199999999</v>
+      </c>
+      <c r="E204" t="n">
+        <v>82.58429700000001</v>
+      </c>
+      <c r="F204" t="n">
+        <v>82.58429700000001</v>
+      </c>
+      <c r="G204" t="n">
+        <v>3530145</v>
       </c>
     </row>
   </sheetData>

--- a/data/yahoofin/TLT_yahoofin_historical_data.xlsx
+++ b/data/yahoofin/TLT_yahoofin_historical_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G204"/>
+  <dimension ref="A1:G205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
         <v>101.459999</v>
       </c>
       <c r="F2" t="n">
-        <v>99.01917299999999</v>
+        <v>99.019188</v>
       </c>
       <c r="G2" t="n">
         <v>25313200</v>
@@ -564,7 +564,7 @@
         <v>105.18</v>
       </c>
       <c r="F5" t="n">
-        <v>102.649696</v>
+        <v>102.649704</v>
       </c>
       <c r="G5" t="n">
         <v>27473700</v>
@@ -589,7 +589,7 @@
         <v>105.739998</v>
       </c>
       <c r="F6" t="n">
-        <v>103.19622</v>
+        <v>103.196228</v>
       </c>
       <c r="G6" t="n">
         <v>21472200</v>
@@ -639,7 +639,7 @@
         <v>105.68</v>
       </c>
       <c r="F8" t="n">
-        <v>103.137657</v>
+        <v>103.137665</v>
       </c>
       <c r="G8" t="n">
         <v>18794000</v>
@@ -664,7 +664,7 @@
         <v>107.760002</v>
       </c>
       <c r="F9" t="n">
-        <v>105.167625</v>
+        <v>105.167618</v>
       </c>
       <c r="G9" t="n">
         <v>32029600</v>
@@ -739,7 +739,7 @@
         <v>108.629997</v>
       </c>
       <c r="F12" t="n">
-        <v>106.016693</v>
+        <v>106.016701</v>
       </c>
       <c r="G12" t="n">
         <v>35497200</v>
@@ -764,7 +764,7 @@
         <v>107.949997</v>
       </c>
       <c r="F13" t="n">
-        <v>105.353058</v>
+        <v>105.35305</v>
       </c>
       <c r="G13" t="n">
         <v>17194700</v>
@@ -789,7 +789,7 @@
         <v>106.199997</v>
       </c>
       <c r="F14" t="n">
-        <v>103.645157</v>
+        <v>103.645149</v>
       </c>
       <c r="G14" t="n">
         <v>22754100</v>
@@ -814,7 +814,7 @@
         <v>105.699997</v>
       </c>
       <c r="F15" t="n">
-        <v>103.157188</v>
+        <v>103.157181</v>
       </c>
       <c r="G15" t="n">
         <v>12961500</v>
@@ -839,7 +839,7 @@
         <v>107.220001</v>
       </c>
       <c r="F16" t="n">
-        <v>104.640617</v>
+        <v>104.640633</v>
       </c>
       <c r="G16" t="n">
         <v>16417200</v>
@@ -889,7 +889,7 @@
         <v>106.980003</v>
       </c>
       <c r="F18" t="n">
-        <v>104.406395</v>
+        <v>104.406403</v>
       </c>
       <c r="G18" t="n">
         <v>15549400</v>
@@ -914,7 +914,7 @@
         <v>106.709999</v>
       </c>
       <c r="F19" t="n">
-        <v>104.142883</v>
+        <v>104.142891</v>
       </c>
       <c r="G19" t="n">
         <v>11845500</v>
@@ -939,7 +939,7 @@
         <v>106.32</v>
       </c>
       <c r="F20" t="n">
-        <v>103.762283</v>
+        <v>103.762268</v>
       </c>
       <c r="G20" t="n">
         <v>11459700</v>
@@ -964,7 +964,7 @@
         <v>107.169998</v>
       </c>
       <c r="F21" t="n">
-        <v>104.59182</v>
+        <v>104.591812</v>
       </c>
       <c r="G21" t="n">
         <v>13705300</v>
@@ -989,7 +989,7 @@
         <v>108.18</v>
       </c>
       <c r="F22" t="n">
-        <v>105.849129</v>
+        <v>105.849144</v>
       </c>
       <c r="G22" t="n">
         <v>25305800</v>
@@ -1089,7 +1089,7 @@
         <v>105.059998</v>
       </c>
       <c r="F26" t="n">
-        <v>102.796364</v>
+        <v>102.796356</v>
       </c>
       <c r="G26" t="n">
         <v>18290300</v>
@@ -1114,7 +1114,7 @@
         <v>105.559998</v>
       </c>
       <c r="F27" t="n">
-        <v>103.285583</v>
+        <v>103.285591</v>
       </c>
       <c r="G27" t="n">
         <v>13530700</v>
@@ -1139,7 +1139,7 @@
         <v>104.559998</v>
       </c>
       <c r="F28" t="n">
-        <v>102.307144</v>
+        <v>102.307137</v>
       </c>
       <c r="G28" t="n">
         <v>20469900</v>
@@ -1189,7 +1189,7 @@
         <v>104.260002</v>
       </c>
       <c r="F30" t="n">
-        <v>102.013596</v>
+        <v>102.013603</v>
       </c>
       <c r="G30" t="n">
         <v>13134300</v>
@@ -1239,7 +1239,7 @@
         <v>103.050003</v>
       </c>
       <c r="F32" t="n">
-        <v>100.829681</v>
+        <v>100.829674</v>
       </c>
       <c r="G32" t="n">
         <v>15246900</v>
@@ -1264,7 +1264,7 @@
         <v>101.589996</v>
       </c>
       <c r="F33" t="n">
-        <v>99.401123</v>
+        <v>99.40113100000001</v>
       </c>
       <c r="G33" t="n">
         <v>19267300</v>
@@ -1289,7 +1289,7 @@
         <v>102.379997</v>
       </c>
       <c r="F34" t="n">
-        <v>100.174103</v>
+        <v>100.17411</v>
       </c>
       <c r="G34" t="n">
         <v>19560900</v>
@@ -1314,7 +1314,7 @@
         <v>100.389999</v>
       </c>
       <c r="F35" t="n">
-        <v>98.22699</v>
+        <v>98.226967</v>
       </c>
       <c r="G35" t="n">
         <v>22728000</v>
@@ -1414,7 +1414,7 @@
         <v>101.25</v>
       </c>
       <c r="F39" t="n">
-        <v>99.068443</v>
+        <v>99.068451</v>
       </c>
       <c r="G39" t="n">
         <v>14209200</v>
@@ -1464,7 +1464,7 @@
         <v>100.370003</v>
       </c>
       <c r="F41" t="n">
-        <v>98.44940200000001</v>
+        <v>98.449394</v>
       </c>
       <c r="G41" t="n">
         <v>19000000</v>
@@ -1489,7 +1489,7 @@
         <v>99.480003</v>
       </c>
       <c r="F42" t="n">
-        <v>97.576431</v>
+        <v>97.57643899999999</v>
       </c>
       <c r="G42" t="n">
         <v>23763600</v>
@@ -1514,7 +1514,7 @@
         <v>101.889999</v>
       </c>
       <c r="F43" t="n">
-        <v>99.940315</v>
+        <v>99.94032300000001</v>
       </c>
       <c r="G43" t="n">
         <v>30877300</v>
@@ -1539,7 +1539,7 @@
         <v>101.099998</v>
       </c>
       <c r="F44" t="n">
-        <v>99.16542800000001</v>
+        <v>99.165443</v>
       </c>
       <c r="G44" t="n">
         <v>16631900</v>
@@ -1589,7 +1589,7 @@
         <v>101.82</v>
       </c>
       <c r="F46" t="n">
-        <v>99.871651</v>
+        <v>99.871658</v>
       </c>
       <c r="G46" t="n">
         <v>20252400</v>
@@ -1614,7 +1614,7 @@
         <v>102.07</v>
       </c>
       <c r="F47" t="n">
-        <v>100.116867</v>
+        <v>100.116875</v>
       </c>
       <c r="G47" t="n">
         <v>21550400</v>
@@ -1714,7 +1714,7 @@
         <v>106.099998</v>
       </c>
       <c r="F51" t="n">
-        <v>104.069763</v>
+        <v>104.069748</v>
       </c>
       <c r="G51" t="n">
         <v>45164100</v>
@@ -1764,7 +1764,7 @@
         <v>106.849998</v>
       </c>
       <c r="F53" t="n">
-        <v>104.805405</v>
+        <v>104.805412</v>
       </c>
       <c r="G53" t="n">
         <v>38129000</v>
@@ -1789,7 +1789,7 @@
         <v>105.910004</v>
       </c>
       <c r="F54" t="n">
-        <v>103.883392</v>
+        <v>103.883385</v>
       </c>
       <c r="G54" t="n">
         <v>24242800</v>
@@ -1889,7 +1889,7 @@
         <v>106.849998</v>
       </c>
       <c r="F58" t="n">
-        <v>104.805405</v>
+        <v>104.805412</v>
       </c>
       <c r="G58" t="n">
         <v>23652700</v>
@@ -1914,7 +1914,7 @@
         <v>104.339996</v>
       </c>
       <c r="F59" t="n">
-        <v>102.343422</v>
+        <v>102.34343</v>
       </c>
       <c r="G59" t="n">
         <v>22224500</v>
@@ -1939,7 +1939,7 @@
         <v>104.529999</v>
       </c>
       <c r="F60" t="n">
-        <v>102.529793</v>
+        <v>102.529785</v>
       </c>
       <c r="G60" t="n">
         <v>17794300</v>
@@ -1989,7 +1989,7 @@
         <v>104.800003</v>
       </c>
       <c r="F62" t="n">
-        <v>102.794617</v>
+        <v>102.794624</v>
       </c>
       <c r="G62" t="n">
         <v>14315800</v>
@@ -2014,7 +2014,7 @@
         <v>106.370003</v>
       </c>
       <c r="F63" t="n">
-        <v>104.334595</v>
+        <v>104.334587</v>
       </c>
       <c r="G63" t="n">
         <v>25396700</v>
@@ -2039,7 +2039,7 @@
         <v>106.599998</v>
       </c>
       <c r="F64" t="n">
-        <v>104.825287</v>
+        <v>104.825279</v>
       </c>
       <c r="G64" t="n">
         <v>18234800</v>
@@ -2064,7 +2064,7 @@
         <v>107.129997</v>
       </c>
       <c r="F65" t="n">
-        <v>105.346466</v>
+        <v>105.346451</v>
       </c>
       <c r="G65" t="n">
         <v>18052400</v>
@@ -2089,7 +2089,7 @@
         <v>108.25</v>
       </c>
       <c r="F66" t="n">
-        <v>106.447815</v>
+        <v>106.447807</v>
       </c>
       <c r="G66" t="n">
         <v>23047700</v>
@@ -2114,7 +2114,7 @@
         <v>108.529999</v>
       </c>
       <c r="F67" t="n">
-        <v>106.723145</v>
+        <v>106.723152</v>
       </c>
       <c r="G67" t="n">
         <v>16447300</v>
@@ -2164,7 +2164,7 @@
         <v>107</v>
       </c>
       <c r="F69" t="n">
-        <v>105.21862</v>
+        <v>105.218628</v>
       </c>
       <c r="G69" t="n">
         <v>13971200</v>
@@ -2214,7 +2214,7 @@
         <v>106.050003</v>
       </c>
       <c r="F71" t="n">
-        <v>104.284447</v>
+        <v>104.284439</v>
       </c>
       <c r="G71" t="n">
         <v>22079400</v>
@@ -2239,7 +2239,7 @@
         <v>105.080002</v>
       </c>
       <c r="F72" t="n">
-        <v>103.330582</v>
+        <v>103.330597</v>
       </c>
       <c r="G72" t="n">
         <v>19801900</v>
@@ -2289,7 +2289,7 @@
         <v>104.199997</v>
       </c>
       <c r="F74" t="n">
-        <v>102.465225</v>
+        <v>102.46524</v>
       </c>
       <c r="G74" t="n">
         <v>15922600</v>
@@ -2364,7 +2364,7 @@
         <v>104.400002</v>
       </c>
       <c r="F77" t="n">
-        <v>102.661903</v>
+        <v>102.661911</v>
       </c>
       <c r="G77" t="n">
         <v>15244700</v>
@@ -2389,7 +2389,7 @@
         <v>105.410004</v>
       </c>
       <c r="F78" t="n">
-        <v>103.655098</v>
+        <v>103.65509</v>
       </c>
       <c r="G78" t="n">
         <v>17034300</v>
@@ -2414,7 +2414,7 @@
         <v>106.959999</v>
       </c>
       <c r="F79" t="n">
-        <v>105.179276</v>
+        <v>105.179283</v>
       </c>
       <c r="G79" t="n">
         <v>21899900</v>
@@ -2439,7 +2439,7 @@
         <v>105.82</v>
       </c>
       <c r="F80" t="n">
-        <v>104.058266</v>
+        <v>104.058273</v>
       </c>
       <c r="G80" t="n">
         <v>19610400</v>
@@ -2464,7 +2464,7 @@
         <v>104.769997</v>
       </c>
       <c r="F81" t="n">
-        <v>103.025749</v>
+        <v>103.025742</v>
       </c>
       <c r="G81" t="n">
         <v>20247600</v>
@@ -2489,7 +2489,7 @@
         <v>106.459999</v>
       </c>
       <c r="F82" t="n">
-        <v>104.687607</v>
+        <v>104.687614</v>
       </c>
       <c r="G82" t="n">
         <v>26949000</v>
@@ -2514,7 +2514,7 @@
         <v>103.129997</v>
       </c>
       <c r="F83" t="n">
-        <v>101.668991</v>
+        <v>101.668983</v>
       </c>
       <c r="G83" t="n">
         <v>32487300</v>
@@ -2539,7 +2539,7 @@
         <v>105.699997</v>
       </c>
       <c r="F84" t="n">
-        <v>104.202576</v>
+        <v>104.202583</v>
       </c>
       <c r="G84" t="n">
         <v>30057800</v>
@@ -2564,7 +2564,7 @@
         <v>106.290001</v>
       </c>
       <c r="F85" t="n">
-        <v>104.784233</v>
+        <v>104.784225</v>
       </c>
       <c r="G85" t="n">
         <v>23656200</v>
@@ -2664,7 +2664,7 @@
         <v>103.050003</v>
       </c>
       <c r="F89" t="n">
-        <v>101.590134</v>
+        <v>101.590126</v>
       </c>
       <c r="G89" t="n">
         <v>19182500</v>
@@ -2689,7 +2689,7 @@
         <v>104.050003</v>
       </c>
       <c r="F90" t="n">
-        <v>102.575958</v>
+        <v>102.575966</v>
       </c>
       <c r="G90" t="n">
         <v>22886800</v>
@@ -2714,7 +2714,7 @@
         <v>105.150002</v>
       </c>
       <c r="F91" t="n">
-        <v>103.660378</v>
+        <v>103.66037</v>
       </c>
       <c r="G91" t="n">
         <v>19147200</v>
@@ -2739,7 +2739,7 @@
         <v>104.269997</v>
       </c>
       <c r="F92" t="n">
-        <v>102.792839</v>
+        <v>102.792847</v>
       </c>
       <c r="G92" t="n">
         <v>14195900</v>
@@ -2764,7 +2764,7 @@
         <v>103.190002</v>
       </c>
       <c r="F93" t="n">
-        <v>101.728142</v>
+        <v>101.728149</v>
       </c>
       <c r="G93" t="n">
         <v>20085300</v>
@@ -2864,7 +2864,7 @@
         <v>101.099998</v>
       </c>
       <c r="F97" t="n">
-        <v>99.66773999999999</v>
+        <v>99.667755</v>
       </c>
       <c r="G97" t="n">
         <v>29032300</v>
@@ -2889,7 +2889,7 @@
         <v>100.739998</v>
       </c>
       <c r="F98" t="n">
-        <v>99.312859</v>
+        <v>99.31285099999999</v>
       </c>
       <c r="G98" t="n">
         <v>20131100</v>
@@ -2914,7 +2914,7 @@
         <v>101.029999</v>
       </c>
       <c r="F99" t="n">
-        <v>99.598732</v>
+        <v>99.598747</v>
       </c>
       <c r="G99" t="n">
         <v>21749500</v>
@@ -2939,7 +2939,7 @@
         <v>100.529999</v>
       </c>
       <c r="F100" t="n">
-        <v>99.10581999999999</v>
+        <v>99.10582700000001</v>
       </c>
       <c r="G100" t="n">
         <v>18473400</v>
@@ -2964,7 +2964,7 @@
         <v>100.279999</v>
       </c>
       <c r="F101" t="n">
-        <v>98.85936700000001</v>
+        <v>98.85936</v>
       </c>
       <c r="G101" t="n">
         <v>22492800</v>
@@ -3014,7 +3014,7 @@
         <v>102.099998</v>
       </c>
       <c r="F103" t="n">
-        <v>100.653587</v>
+        <v>100.65358</v>
       </c>
       <c r="G103" t="n">
         <v>23125200</v>
@@ -3039,7 +3039,7 @@
         <v>102.989998</v>
       </c>
       <c r="F104" t="n">
-        <v>101.530968</v>
+        <v>101.530975</v>
       </c>
       <c r="G104" t="n">
         <v>23787000</v>
@@ -3064,7 +3064,7 @@
         <v>103.120003</v>
       </c>
       <c r="F105" t="n">
-        <v>101.929321</v>
+        <v>101.929329</v>
       </c>
       <c r="G105" t="n">
         <v>21040400</v>
@@ -3139,7 +3139,7 @@
         <v>102.400002</v>
       </c>
       <c r="F108" t="n">
-        <v>101.217644</v>
+        <v>101.217636</v>
       </c>
       <c r="G108" t="n">
         <v>14332100</v>
@@ -3164,7 +3164,7 @@
         <v>100.879997</v>
       </c>
       <c r="F109" t="n">
-        <v>99.71517900000001</v>
+        <v>99.715187</v>
       </c>
       <c r="G109" t="n">
         <v>25251100</v>
@@ -3189,7 +3189,7 @@
         <v>102.059998</v>
       </c>
       <c r="F110" t="n">
-        <v>100.881554</v>
+        <v>100.881561</v>
       </c>
       <c r="G110" t="n">
         <v>23845100</v>
@@ -3214,7 +3214,7 @@
         <v>101.919998</v>
       </c>
       <c r="F111" t="n">
-        <v>100.743172</v>
+        <v>100.743179</v>
       </c>
       <c r="G111" t="n">
         <v>22147400</v>
@@ -3289,7 +3289,7 @@
         <v>102.019997</v>
       </c>
       <c r="F114" t="n">
-        <v>100.842026</v>
+        <v>100.842018</v>
       </c>
       <c r="G114" t="n">
         <v>29094200</v>
@@ -3339,7 +3339,7 @@
         <v>102.599998</v>
       </c>
       <c r="F116" t="n">
-        <v>101.415321</v>
+        <v>101.415329</v>
       </c>
       <c r="G116" t="n">
         <v>16758200</v>
@@ -3364,7 +3364,7 @@
         <v>103.309998</v>
       </c>
       <c r="F117" t="n">
-        <v>102.117119</v>
+        <v>102.117126</v>
       </c>
       <c r="G117" t="n">
         <v>17162900</v>
@@ -3389,7 +3389,7 @@
         <v>103.559998</v>
       </c>
       <c r="F118" t="n">
-        <v>102.364235</v>
+        <v>102.364243</v>
       </c>
       <c r="G118" t="n">
         <v>19720100</v>
@@ -3414,7 +3414,7 @@
         <v>102.309998</v>
       </c>
       <c r="F119" t="n">
-        <v>101.12867</v>
+        <v>101.128677</v>
       </c>
       <c r="G119" t="n">
         <v>23630700</v>
@@ -3464,7 +3464,7 @@
         <v>103.440002</v>
       </c>
       <c r="F121" t="n">
-        <v>102.245636</v>
+        <v>102.245628</v>
       </c>
       <c r="G121" t="n">
         <v>12894900</v>
@@ -3514,7 +3514,7 @@
         <v>103.610001</v>
       </c>
       <c r="F123" t="n">
-        <v>102.413673</v>
+        <v>102.413666</v>
       </c>
       <c r="G123" t="n">
         <v>23826800</v>
@@ -3564,7 +3564,7 @@
         <v>102.940002</v>
       </c>
       <c r="F125" t="n">
-        <v>101.751404</v>
+        <v>101.751396</v>
       </c>
       <c r="G125" t="n">
         <v>32018800</v>
@@ -3664,7 +3664,7 @@
         <v>99.08000199999999</v>
       </c>
       <c r="F129" t="n">
-        <v>98.20117999999999</v>
+        <v>98.201172</v>
       </c>
       <c r="G129" t="n">
         <v>28979600</v>
@@ -3689,7 +3689,7 @@
         <v>99.209999</v>
       </c>
       <c r="F130" t="n">
-        <v>98.330017</v>
+        <v>98.33002500000001</v>
       </c>
       <c r="G130" t="n">
         <v>24665200</v>
@@ -3739,7 +3739,7 @@
         <v>100.830002</v>
       </c>
       <c r="F132" t="n">
-        <v>99.935654</v>
+        <v>99.93564600000001</v>
       </c>
       <c r="G132" t="n">
         <v>31928000</v>
@@ -3889,7 +3889,7 @@
         <v>101.699997</v>
       </c>
       <c r="F138" t="n">
-        <v>100.797935</v>
+        <v>100.797928</v>
       </c>
       <c r="G138" t="n">
         <v>56951200</v>
@@ -3914,7 +3914,7 @@
         <v>101.730003</v>
       </c>
       <c r="F139" t="n">
-        <v>100.827667</v>
+        <v>100.827675</v>
       </c>
       <c r="G139" t="n">
         <v>20655700</v>
@@ -3964,7 +3964,7 @@
         <v>101.169998</v>
       </c>
       <c r="F141" t="n">
-        <v>100.272629</v>
+        <v>100.272636</v>
       </c>
       <c r="G141" t="n">
         <v>17160600</v>
@@ -4064,7 +4064,7 @@
         <v>100.050003</v>
       </c>
       <c r="F145" t="n">
-        <v>99.162575</v>
+        <v>99.162567</v>
       </c>
       <c r="G145" t="n">
         <v>28663800</v>
@@ -4214,7 +4214,7 @@
         <v>96.69000200000001</v>
       </c>
       <c r="F151" t="n">
-        <v>96.096504</v>
+        <v>96.096512</v>
       </c>
       <c r="G151" t="n">
         <v>24010500</v>
@@ -4239,7 +4239,7 @@
         <v>97.19000200000001</v>
       </c>
       <c r="F152" t="n">
-        <v>96.59343699999999</v>
+        <v>96.593445</v>
       </c>
       <c r="G152" t="n">
         <v>20151100</v>
@@ -4264,7 +4264,7 @@
         <v>95.589996</v>
       </c>
       <c r="F153" t="n">
-        <v>95.00324999999999</v>
+        <v>95.003258</v>
       </c>
       <c r="G153" t="n">
         <v>37253200</v>
@@ -4439,7 +4439,7 @@
         <v>92.519997</v>
       </c>
       <c r="F160" t="n">
-        <v>91.95210299999999</v>
+        <v>91.952095</v>
       </c>
       <c r="G160" t="n">
         <v>29254100</v>
@@ -4489,7 +4489,7 @@
         <v>95.540001</v>
       </c>
       <c r="F162" t="n">
-        <v>94.953568</v>
+        <v>94.95356</v>
       </c>
       <c r="G162" t="n">
         <v>38294700</v>
@@ -4514,7 +4514,7 @@
         <v>94.910004</v>
       </c>
       <c r="F163" t="n">
-        <v>94.327438</v>
+        <v>94.327431</v>
       </c>
       <c r="G163" t="n">
         <v>22300800</v>
@@ -4539,7 +4539,7 @@
         <v>95.220001</v>
       </c>
       <c r="F164" t="n">
-        <v>94.635536</v>
+        <v>94.63552900000001</v>
       </c>
       <c r="G164" t="n">
         <v>23865200</v>
@@ -4564,7 +4564,7 @@
         <v>95.31999999999999</v>
       </c>
       <c r="F165" t="n">
-        <v>94.734909</v>
+        <v>94.734917</v>
       </c>
       <c r="G165" t="n">
         <v>16037300</v>
@@ -5527,22 +5527,47 @@
         </is>
       </c>
       <c r="B204" t="n">
-        <v>82.989998</v>
+        <v>82.80999799999999</v>
       </c>
       <c r="C204" t="n">
-        <v>82.894997</v>
+        <v>84.860001</v>
       </c>
       <c r="D204" t="n">
-        <v>82.58000199999999</v>
+        <v>82.41999800000001</v>
       </c>
       <c r="E204" t="n">
-        <v>82.58429700000001</v>
+        <v>84.239998</v>
       </c>
       <c r="F204" t="n">
-        <v>82.58429700000001</v>
+        <v>84.239998</v>
       </c>
       <c r="G204" t="n">
-        <v>3530145</v>
+        <v>70890400</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2023-10-24</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>84.44000200000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>85.175003</v>
+      </c>
+      <c r="D205" t="n">
+        <v>84.099998</v>
+      </c>
+      <c r="E205" t="n">
+        <v>85.175003</v>
+      </c>
+      <c r="F205" t="n">
+        <v>85.175003</v>
+      </c>
+      <c r="G205" t="n">
+        <v>30286241</v>
       </c>
     </row>
   </sheetData>
